--- a/KnowledgeGraph/data/operation.xlsx
+++ b/KnowledgeGraph/data/operation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="20328" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>名词</t>
   </si>
@@ -25,37 +25,63 @@
     <t>产品类型</t>
   </si>
   <si>
+    <t>适用人群</t>
+  </si>
+  <si>
     <t>封闭式非净值型</t>
   </si>
   <si>
-    <t>封闭式：1、是指在只有在产品说明书公布的固定日期或者产品到期日之后才可以进行赎回操作或是对提前赎回有限制的理财产品。
+    <t>封闭式：
+1、是指在只有在产品说明书公布的固定日期或者产品到期日之后才可以进行赎回操作或是对提前赎回有限制的理财产品。
 2、收益高于同类开放式产品，但是流动性差。
 3、适合对流动性要求不高的投资者。</t>
   </si>
   <si>
-    <t>非净值型：1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
-2、以投资一些稳定型的理财产品为主，收益上会相对较弱；由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作；非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。
-3、适合风险承担能力低，对收益追求低的人群。</t>
+    <t>非净值型：
+1、非净值型以投资一些稳定型的理财产品为主，收益上会相对较弱。
+2、非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
+3、非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。</t>
+  </si>
+  <si>
+    <t>低流动性、低风险，低收益</t>
   </si>
   <si>
     <t>封闭式净值型</t>
   </si>
   <si>
-    <t>开放式净值型</t>
-  </si>
-  <si>
-    <t>开放式：1、是指在每个法定工作日里，在规定的交易时间内，可以进行申购或赎回的理财产品。
-2、收益一般情况下抵于同类封闭式产品，但是流动性好。
-3、适合对流动性要求高的投资者。</t>
-  </si>
-  <si>
-    <t>净值型：1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
+    <t>净值型：
+1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
 2、开放式、非保本浮动收益性。运作透明度高
 净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高；真实反映投资资产的市场价值；净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。
 3、适合有一定的风险承担能力、追求更高收益的人群。</t>
   </si>
   <si>
+    <t>低流动性、高风险、高收益</t>
+  </si>
+  <si>
+    <t>开放式净值型</t>
+  </si>
+  <si>
+    <t>开放式：
+1、是指在每个法定工作日里，在规定的交易时间内，可以进行申购或赎回的理财产品。
+2、收益一般情况下抵于同类封闭式产品，但是流动性好。
+3、适合对流动性要求高的投资者。</t>
+  </si>
+  <si>
+    <t>净值型：
+1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
+2、开放式、非保本浮动收益性。运作透明度高。
+净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高；真实反映投资资产的市场价值；净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。
+3、适合有一定的风险承担能力、追求更高收益的人群。</t>
+  </si>
+  <si>
+    <t>高流动性、高风险、高收益</t>
+  </si>
+  <si>
     <t>开放式非净值型</t>
+  </si>
+  <si>
+    <t>高流动性、低风险，低收益</t>
   </si>
 </sst>
 </file>
@@ -78,6 +104,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -85,9 +125,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,30 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,61 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,16 +194,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,162 +256,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,18 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +447,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,6 +506,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -479,48 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,15 +1023,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,46 +1046,64 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="409.5" spans="1:3">
+    <row r="2" ht="24" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="374.4" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" ht="22" customHeight="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="29" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/KnowledgeGraph/data/operation.xlsx
+++ b/KnowledgeGraph/data/operation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8555"/>
+    <workbookView windowWidth="17304" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>名词</t>
   </si>
@@ -32,15 +32,15 @@
   </si>
   <si>
     <t>封闭式：
-1、是指在只有在产品说明书公布的固定日期或者产品到期日之后才可以进行赎回操作或是对提前赎回有限制的理财产品。
-2、收益高于同类开放式产品，但是流动性差。
-3、适合对流动性要求不高的投资者。</t>
+    1、是指在只有在产品说明书公布的固定日期或者产品到期日之后才可以进行赎回操作或是对提前赎回有限制的理财产品。
+    2、收益高于同类开放式产品，但是流动性差。
+    3、适合对流动性要求不高的投资者。</t>
   </si>
   <si>
     <t>非净值型：
-1、非净值型以投资一些稳定型的理财产品为主，收益上会相对较弱。
-2、非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
-3、非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。</t>
+    1、非净值型以投资一些稳定型的理财产品为主，收益上会相对较弱。
+    2、非净值型由于产品结构大多为固收，产品期权限最短也是需要一个月，而且期间不能进行操作。
+    3、非净值型产品的市场风险比较小，但是产品会具备一定的流动性风险。</t>
   </si>
   <si>
     <t>低流动性、低风险，低收益</t>
@@ -50,10 +50,9 @@
   </si>
   <si>
     <t>净值型：
-1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
-2、开放式、非保本浮动收益性。运作透明度高
-净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高；真实反映投资资产的市场价值；净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。
-3、适合有一定的风险承担能力、追求更高收益的人群。</t>
+    1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
+    2、开放式、非保本浮动收益性。运作透明度高。净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高；真实反映投资资产的市场价值；净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。
+    3、适合有一定的风险承担能力、追求更高收益的人群。</t>
   </si>
   <si>
     <t>低流动性、高风险、高收益</t>
@@ -63,16 +62,9 @@
   </si>
   <si>
     <t>开放式：
-1、是指在每个法定工作日里，在规定的交易时间内，可以进行申购或赎回的理财产品。
-2、收益一般情况下抵于同类封闭式产品，但是流动性好。
-3、适合对流动性要求高的投资者。</t>
-  </si>
-  <si>
-    <t>净值型：
-1、是按照份额发行并定期或不定期披露单位份额净值的理财产品，收益率随着净值变化而变化。
-2、开放式、非保本浮动收益性。运作透明度高。
-净值型产品定期披露产品运作公告，投资者在投资期内可准确掌握净值型产品的投资情况及产品净值等信息，产品运作透明度高；真实反映投资资产的市场价值；净值型产品投资资产流动性高，估值更为透明，在市值法的估值体系下，净值型产品净值可直接反映出投资资产的市场价值。
-3、适合有一定的风险承担能力、追求更高收益的人群。</t>
+    1、是指在每个法定工作日里，在规定的交易时间内，可以进行申购或赎回的理财产品。
+    2、收益一般情况下抵于同类封闭式产品，但是流动性好。
+    3、适合对流动性要求高的投资者。</t>
   </si>
   <si>
     <t>高流动性、高风险、高收益</t>
@@ -104,14 +96,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,8 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,18 +202,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,14 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -178,70 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +248,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,43 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,115 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +439,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,30 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,24 +486,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +515,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1018,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1086,15 +1078,15 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" ht="29" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1103,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
